--- a/Excel_database/Statistical_Analysis.xlsx
+++ b/Excel_database/Statistical_Analysis.xlsx
@@ -342,9 +342,6 @@
     <t>Spearman Correlation for each muscle between each task for EA with more than 10 years evolution - Rectus_L</t>
   </si>
   <si>
-    <t xml:space="preserve">Média EMG array para pessoas saudáveis. </t>
-  </si>
-  <si>
     <t>Spearman Correlation for each task between each muscle - OneFootStanding_R_EO</t>
   </si>
   <si>
@@ -399,13 +396,19 @@
     <t>P-value for each task between each muscle - Standing_EO</t>
   </si>
   <si>
-    <t>Peak EMG array Pessoas Saudáveis</t>
+    <t>Média EMG array Pessoas Saudáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak EMG array para pessoas saudáveis. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,12 +452,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1821,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BC276"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -27743,23 +27750,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR190"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:P12"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH111" sqref="AH111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>5</v>
@@ -27884,25 +27891,25 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0.66356275303643719</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.58886639676113361</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>0.44129554655870451</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>0.21234817813765181</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>8.8056680161943318E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>0.63279352226720642</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -27998,34 +28005,34 @@
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>0.66356275303643719</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.31012145748987863</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.32024291497975699</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>0.24412955465587041</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>0.20242914979757079</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>0.27510121457489878</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>0.46072874493927118</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>4.1378355606000786E-6</v>
       </c>
       <c r="M8">
@@ -28052,7 +28059,7 @@
       <c r="V8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="6">
         <v>0.95829959514170038</v>
       </c>
       <c r="X8">
@@ -28115,37 +28122,37 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>0.58886639676113361</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.31012145748987863</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.59979757085020247</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>0.17186234817813759</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>8.0971659919028341E-3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>6.5182186234817807E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>0.37773279352226719</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>8.0296983161334305E-5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>5.4685580335652073E-2</v>
       </c>
       <c r="N9">
@@ -28169,10 +28176,10 @@
       <c r="V9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="6">
         <v>0.9263157894736842</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="6">
         <v>0.92085020242914983</v>
       </c>
       <c r="Y9">
@@ -28232,40 +28239,40 @@
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>0.44129554655870451</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>0.32024291497975699</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.59979757085020247</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>5.4048582995951423E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>5.3643724696356268E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>-3.7044534412955472E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>0.32044534412955461</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>4.9208180187902354E-3</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>4.6862875670596049E-2</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>5.4481563484873862E-5</v>
       </c>
       <c r="O10">
@@ -28286,13 +28293,13 @@
       <c r="V10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="6">
         <v>0.72530364372469636</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="6">
         <v>0.69655870445344126</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="6">
         <v>0.77813765182186234</v>
       </c>
       <c r="Z10">
@@ -28349,43 +28356,43 @@
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>0.21234817813765181</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>0.24412955465587041</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.17186234817813759</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>5.4048582995951423E-2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>0.59979757085020247</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>0.69979757085020244</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>0.52935222672064774</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>0.19434649229052001</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>0.13419763818109001</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>0.29548278617412038</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="5">
         <v>0.74382636305888694</v>
       </c>
       <c r="P11">
@@ -28403,16 +28410,16 @@
       <c r="V11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="6">
         <v>0.86477732793522266</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="6">
         <v>0.86194331983805672</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="6">
         <v>0.88846153846153841</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="6">
         <v>0.77834008097165996</v>
       </c>
       <c r="AA11">
@@ -28466,16 +28473,16 @@
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>0.20242914979757079</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>8.0971659919028341E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>5.3643724696356268E-2</v>
       </c>
       <c r="F12">
@@ -28484,28 +28491,28 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>0.59170040485829956</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>0.24210526315789471</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>0.56036762185590372</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>0.21650224301886201</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>0.96098120764004569</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>0.74568135426700499</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="5">
         <v>5.4481563484873862E-5</v>
       </c>
       <c r="Q12">
@@ -28520,19 +28527,19 @@
       <c r="V12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="6">
         <v>0.65182186234817818</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="6">
         <v>0.70748987854251011</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="6">
         <v>0.71882591093117409</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="6">
         <v>0.72651821862348176</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="6">
         <v>0.80931174089068836</v>
       </c>
       <c r="AB12">
@@ -28583,49 +28590,49 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>8.8056680161943318E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0.27510121457489878</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>6.5182186234817807E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>-3.7044534412955472E-2</v>
       </c>
       <c r="F13">
         <v>0.69979757085020244</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>0.59170040485829956</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>0.47125506072874501</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.59399243043367178</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>9.0077229900164771E-2</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>0.69340505877562086</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <v>0.82284062571772321</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="5">
         <v>7.1366680692823081E-7</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="5">
         <v>7.2712877296772166E-5</v>
       </c>
       <c r="R13">
@@ -28637,22 +28644,22 @@
       <c r="V13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="6">
         <v>0.83461538461538465</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="6">
         <v>0.87165991902834006</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="6">
         <v>0.86801619433198374</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="6">
         <v>0.66356275303643719</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="6">
         <v>0.80080971659919031</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="6">
         <v>0.69858299595141693</v>
       </c>
       <c r="AC13">
@@ -28700,25 +28707,25 @@
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>0.63279352226720642</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>0.46072874493927118</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>0.37773279352226719</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>0.32044534412955461</v>
       </c>
       <c r="F14">
         <v>0.52935222672064774</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <v>0.24210526315789471</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>0.47125506072874501</v>
       </c>
       <c r="I14">
@@ -28727,25 +28734,25 @@
       <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="7">
         <v>1.542895949491518E-5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="7">
         <v>3.1610014224091871E-3</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="7">
         <v>1.775098816698133E-2</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="7">
         <v>4.6716164329600553E-2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="7">
         <v>5.300509140817696E-4</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="7">
         <v>0.13755767859590801</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="7">
         <v>2.4603477589514229E-3</v>
       </c>
       <c r="S14" s="1">
@@ -28754,25 +28761,25 @@
       <c r="V14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="6">
         <v>0.8917004048582996</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="6">
         <v>0.92105263157894746</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="6">
         <v>0.86396761133603239</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="6">
         <v>0.65020242914979753</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="6">
         <v>0.85748987854251013</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="6">
         <v>0.71052631578947367</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="6">
         <v>0.84251012145748994</v>
       </c>
       <c r="AD14">
@@ -28815,31 +28822,32 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="K15" s="1"/>
+      <c r="M15" s="5"/>
       <c r="V15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="6">
         <v>0.83987854251012151</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="6">
         <v>0.84797570850202431</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="6">
         <v>0.85546558704453446</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="6">
         <v>0.73421052631578942</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="6">
         <v>0.79412955465587054</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="6">
         <v>0.65627530364372466</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="6">
         <v>0.87813765182186243</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="6">
         <v>0.79696356275303648</v>
       </c>
       <c r="AE15">
@@ -28879,11 +28887,11 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -29067,7 +29075,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>0.55627530364372468</v>
       </c>
       <c r="C21">
@@ -29094,7 +29102,7 @@
       <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>2.3587122233715351E-4</v>
       </c>
       <c r="M21">
@@ -29184,10 +29192,10 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>0.49149797570850201</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>0.21234817813765181</v>
       </c>
       <c r="D22">
@@ -29211,10 +29219,10 @@
       <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="5">
         <v>1.4854600359480879E-3</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <v>0.19434649229052001</v>
       </c>
       <c r="N22">
@@ -29238,7 +29246,7 @@
       <c r="V22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="6">
         <v>0.74008097165991904</v>
       </c>
       <c r="X22">
@@ -29301,13 +29309,13 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>6.9230769230769235E-2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>0.1008097165991903</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>0.395748987854251</v>
       </c>
       <c r="E23">
@@ -29328,13 +29336,13 @@
       <c r="K23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <v>0.67537506462259422</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <v>0.5414429973989181</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>1.2638671043372639E-2</v>
       </c>
       <c r="O23">
@@ -29355,10 +29363,10 @@
       <c r="V23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="6">
         <v>0.70364372469635628</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="6">
         <v>0.61720647773279358</v>
       </c>
       <c r="Y23">
@@ -29418,16 +29426,16 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>1.983805668016194E-2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>1.2145748987854249E-3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>-0.15890688259109309</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>2.4291497975708499E-3</v>
       </c>
       <c r="F24">
@@ -29445,16 +29453,16 @@
       <c r="K24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>0.9045865118660813</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <v>0.99414499294760084</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <v>0.33392214762746558</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="5">
         <v>0.98829028819088849</v>
       </c>
       <c r="P24">
@@ -29472,13 +29480,13 @@
       <c r="V24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="6">
         <v>0.48967611336032391</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="6">
         <v>0.62914979757085021</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="6">
         <v>0.57186234817813764</v>
       </c>
       <c r="Z24">
@@ -29535,19 +29543,19 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>8.9878542510121451E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>-6.8623481781376519E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>-0.1036437246963563</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>0.1064777327935223</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <v>0.55161943319838058</v>
       </c>
       <c r="G25">
@@ -29562,19 +29570,19 @@
       <c r="K25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <v>0.58635012292991262</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="5">
         <v>0.67806850261435581</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="5">
         <v>0.53007555458125832</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="5">
         <v>0.51882562912408026</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="5">
         <v>2.7266458179478058E-4</v>
       </c>
       <c r="Q25">
@@ -29589,16 +29597,16 @@
       <c r="V25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="6">
         <v>0.4684210526315789</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="6">
         <v>0.4303643724696356</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="6">
         <v>0.35607287449392722</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="6">
         <v>0.37348178137651822</v>
       </c>
       <c r="AA25">
@@ -29652,22 +29660,22 @@
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>0.30445344129554658</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>0.12510121457489881</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>-2.3076923076923082E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>4.9797570850202429E-2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <v>0.3595141700404858</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <v>0.37429149797570849</v>
       </c>
       <c r="H26">
@@ -29679,22 +29687,22 @@
       <c r="K26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <v>5.9502455277115097E-2</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <v>0.44795620563686211</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="5">
         <v>0.8890985864645452</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="5">
         <v>0.76337295392369964</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="5">
         <v>2.4584712391800101E-2</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="5">
         <v>1.8902688855082259E-2</v>
       </c>
       <c r="R26">
@@ -29706,19 +29714,19 @@
       <c r="V26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="6">
         <v>0.33765182186234821</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="6">
         <v>0.49453441295546552</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="6">
         <v>0.25</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="6">
         <v>0.37834008097165989</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="6">
         <v>0.49959514170040492</v>
       </c>
       <c r="AB26">
@@ -29769,25 +29777,25 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>0.37287449392712552</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>0.2487854251012146</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="8">
         <v>0.38157894736842107</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="8">
         <v>1.417004048582996E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="8">
         <v>7.5506072874493929E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="8">
         <v>0.1044534412955466</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="8">
         <v>0.44352226720647769</v>
       </c>
       <c r="I27" s="1">
@@ -29796,25 +29804,25 @@
       <c r="K27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="5">
         <v>1.939479314683765E-2</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="5">
         <v>0.1267010124311379</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="5">
         <v>1.6534119317383481E-2</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="5">
         <v>0.93177092575864207</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="5">
         <v>0.6477811791244521</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="5">
         <v>0.52684920868573037</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="5">
         <v>4.6834763711263543E-3</v>
       </c>
       <c r="S27">
@@ -29823,22 +29831,22 @@
       <c r="V27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="6">
         <v>0.35404858299595138</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="6">
         <v>0.38684210526315788</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="6">
         <v>0.1704453441295547</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="6">
         <v>0.12267206477732789</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="6">
         <v>0.35708502024291489</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="6">
         <v>0.19493927125506069</v>
       </c>
       <c r="AC27">
@@ -29887,25 +29895,25 @@
       <c r="V28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="6">
         <v>0.75404858299595146</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="6">
         <v>0.53117408906882591</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="6">
         <v>0.48056680161943321</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="6">
         <v>0.39291497975708511</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="6">
         <v>0.29939271255060729</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="6">
         <v>0.5034412955465587</v>
       </c>
       <c r="AD28">
@@ -29949,36 +29957,37 @@
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="L29" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="6">
         <v>0.73886639676113364</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="6">
         <v>0.6935222672064778</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="6">
         <v>0.455668016194332</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="6">
         <v>0.31842105263157888</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="6">
         <v>0.35263157894736852</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="6">
         <v>0.34473684210526317</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="6">
         <v>0.54008097165991908</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="6">
         <v>0.56578947368421051</v>
       </c>
       <c r="AE29">
@@ -30018,6 +30027,7 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
+      <c r="AB30" s="6"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -30140,7 +30150,7 @@
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>0.65789473684210531</v>
       </c>
       <c r="C34">
@@ -30253,10 +30263,10 @@
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>0.51943319838056679</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>0.27287449392712548</v>
       </c>
       <c r="D35">
@@ -30370,13 +30380,13 @@
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>0.39089068825910928</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>0.1336032388663968</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>0.59048582995951415</v>
       </c>
       <c r="E36">
@@ -30424,7 +30434,7 @@
       <c r="V36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="6">
         <v>0.8236842105263158</v>
       </c>
       <c r="X36">
@@ -30487,16 +30497,16 @@
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>2.1457489878542509E-2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>-0.1469635627530364</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>0.1722672064777328</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>0.1512145748987854</v>
       </c>
       <c r="F37">
@@ -30541,10 +30551,10 @@
       <c r="V37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="6">
         <v>0.79939271255060729</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="6">
         <v>0.70323886639676114</v>
       </c>
       <c r="Y37">
@@ -30604,19 +30614,19 @@
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>0.1773279352226721</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>0.1846153846153846</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>0.25951417004048583</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>0.1036437246963563</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>0.42530364372469642</v>
       </c>
       <c r="G38">
@@ -30658,13 +30668,13 @@
       <c r="V38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="6">
         <v>0.49615384615384622</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="6">
         <v>0.39939271255060732</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="6">
         <v>0.70890688259109313</v>
       </c>
       <c r="Z38">
@@ -30721,22 +30731,22 @@
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>0.25384615384615378</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>0.16457489878542511</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>0.18502024291497979</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>0.23218623481781381</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>0.4291497975708502</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="6">
         <v>0.33259109311740892</v>
       </c>
       <c r="H39">
@@ -30775,16 +30785,16 @@
       <c r="V39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="6">
         <v>0.71174089068825908</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="6">
         <v>0.61578947368421055</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="6">
         <v>0.65485829959514175</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="6">
         <v>0.36700404858299601</v>
       </c>
       <c r="AA39">
@@ -30838,25 +30848,25 @@
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>0.26174089068825912</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>0.25566801619433199</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>0.47287449392712549</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>0.1710526315789474</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>9.8380566801619426E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6">
         <v>0.56234817813765181</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="6">
         <v>0.25951417004048583</v>
       </c>
       <c r="I40">
@@ -30892,19 +30902,19 @@
       <c r="V40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="6">
         <v>0.13542510121457491</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="6">
         <v>0.22935222672064781</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="6">
         <v>0.20242914979757079</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="6">
         <v>0.1489878542510121</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="6">
         <v>0.13947368421052631</v>
       </c>
       <c r="AB40">
@@ -30956,22 +30966,22 @@
       <c r="V41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="6">
         <v>0.52692307692307694</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="6">
         <v>0.45587044534412963</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="6">
         <v>0.61356275303643715</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="6">
         <v>0.30101214574898782</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="6">
         <v>0.48461538461538461</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="6">
         <v>0.1208502024291498</v>
       </c>
       <c r="AC41">
@@ -31017,34 +31027,34 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="6">
         <v>0.39331983805668008</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="6">
         <v>0.24230769230769231</v>
       </c>
-      <c r="Y42">
+      <c r="Y42" s="6">
         <v>0.36477732793522272</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="6">
         <v>0.2609311740890688</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="6">
         <v>0.21356275303643721</v>
       </c>
-      <c r="AB42">
+      <c r="AB42" s="6">
         <v>3.8663967611336031E-2</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="6">
         <v>0.65222672064777321</v>
       </c>
       <c r="AD42">
@@ -31090,28 +31100,28 @@
       <c r="V43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="6">
         <v>0.51983805668016192</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="6">
         <v>0.31983805668016202</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="6">
         <v>0.51457489878542506</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="6">
         <v>0.40141700404858299</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="6">
         <v>0.31761133603238872</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="6">
         <v>-1.4574898785425099E-2</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="6">
         <v>0.60101214574898787</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="6">
         <v>0.63542510121457496</v>
       </c>
       <c r="AE43">
@@ -31266,7 +31276,7 @@
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>0.66659919028340087</v>
       </c>
       <c r="C47">
@@ -31322,10 +31332,10 @@
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="8">
         <v>0.68825910931174084</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="8">
         <v>0.58279352226720638</v>
       </c>
       <c r="D48" s="1">
@@ -31435,13 +31445,13 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>0.49635627530364368</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
         <v>0.32125506072874488</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>0.74493927125506065</v>
       </c>
       <c r="E49">
@@ -31552,16 +31562,16 @@
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>0.71093117408906881</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>0.54979757085020242</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>0.65222672064777321</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="6">
         <v>0.47651821862348182</v>
       </c>
       <c r="F50">
@@ -31606,7 +31616,7 @@
       <c r="V50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="6">
         <v>0.96032388663967605</v>
       </c>
       <c r="X50">
@@ -31669,19 +31679,19 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>0.48522267206477743</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="6">
         <v>0.3508097165991903</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>0.51336032388663977</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="6">
         <v>0.4319838056680162</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="6">
         <v>0.63117408906882588</v>
       </c>
       <c r="G51">
@@ -31723,10 +31733,10 @@
       <c r="V51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="6">
         <v>0.78056680161943315</v>
       </c>
-      <c r="X51">
+      <c r="X51" s="6">
         <v>0.77894736842105261</v>
       </c>
       <c r="Y51">
@@ -31786,22 +31796,22 @@
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>0.51234817813765188</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>0.44676113360323888</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>0.38603238866396761</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
         <v>0.2350202429149798</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="6">
         <v>0.55627530364372468</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="6">
         <v>0.55607287449392706</v>
       </c>
       <c r="H52">
@@ -31840,13 +31850,13 @@
       <c r="V52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="6">
         <v>0.42246963562753043</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="6">
         <v>0.45708502024291497</v>
       </c>
-      <c r="Y52">
+      <c r="Y52" s="6">
         <v>0.66578947368421049</v>
       </c>
       <c r="Z52">
@@ -31903,25 +31913,25 @@
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>0.64028340080971669</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
         <v>0.53785425101214568</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>0.72793522267206479</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <v>0.53441295546558709</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <v>0.63076923076923075</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="6">
         <v>0.62550607287449389</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <v>0.58481781376518216</v>
       </c>
       <c r="I53">
@@ -31957,16 +31967,16 @@
       <c r="V53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="6">
         <v>0.66761133603238865</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="6">
         <v>0.67550607287449393</v>
       </c>
-      <c r="Y53">
+      <c r="Y53" s="6">
         <v>0.7165991902834008</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="6">
         <v>0.61983805668016201</v>
       </c>
       <c r="AA53">
@@ -32021,19 +32031,19 @@
       <c r="V54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="6">
         <v>0.51599190283400809</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="6">
         <v>0.49554655870445341</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="6">
         <v>0.59716599190283404</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="6">
         <v>0.59392712550607296</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="6">
         <v>0.49959514170040492</v>
       </c>
       <c r="AB54">
@@ -32083,30 +32093,30 @@
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="6">
         <v>0.5</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="6">
         <v>0.52469635627530364</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="6">
         <v>0.50222672064777318</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="6">
         <v>0.39655870445344132</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="6">
         <v>0.52226720647773273</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="6">
         <v>0.52165991902834008</v>
       </c>
       <c r="AC55">
@@ -32163,25 +32173,25 @@
       <c r="V56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="6">
         <v>0.74736842105263157</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="6">
         <v>0.7983805668016194</v>
       </c>
-      <c r="Y56">
+      <c r="Y56" s="6">
         <v>0.67024291497975708</v>
       </c>
-      <c r="Z56">
+      <c r="Z56" s="6">
         <v>0.55748987854251009</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="6">
         <v>0.66902834008097167</v>
       </c>
-      <c r="AB56">
+      <c r="AB56" s="6">
         <v>0.56943319838056683</v>
       </c>
-      <c r="AC56">
+      <c r="AC56" s="6">
         <v>0.60971659919028331</v>
       </c>
       <c r="AD56">
@@ -32227,28 +32237,28 @@
       <c r="V57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="6">
         <v>0.62489878542510124</v>
       </c>
-      <c r="X57">
+      <c r="X57" s="6">
         <v>0.64797570850202435</v>
       </c>
-      <c r="Y57">
+      <c r="Y57" s="6">
         <v>0.63259109311740891</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="6">
         <v>0.46437246963562762</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="6">
         <v>0.66376518218623481</v>
       </c>
-      <c r="AB57">
+      <c r="AB57" s="6">
         <v>0.57246963562753039</v>
       </c>
-      <c r="AC57">
+      <c r="AC57" s="6">
         <v>0.67874493927125512</v>
       </c>
-      <c r="AD57">
+      <c r="AD57" s="6">
         <v>0.6117408906882591</v>
       </c>
       <c r="AE57">
@@ -32336,6 +32346,7 @@
       <c r="S58" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="X58" s="6"/>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -32404,7 +32415,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="6">
         <v>0.65141700404858305</v>
       </c>
       <c r="C60">
@@ -32460,10 +32471,10 @@
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="6">
         <v>0.42813765182186231</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="6">
         <v>0.37753036437246967</v>
       </c>
       <c r="D61">
@@ -32516,13 +32527,13 @@
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="6">
         <v>0.3283400809716599</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>0.29514170040485832</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>0.65566801619433202</v>
       </c>
       <c r="E62">
@@ -32629,16 +32640,16 @@
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>5.890688259109312E-2</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="6">
         <v>0.30141700404858301</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="6">
         <v>0.22489878542510119</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="6">
         <v>0.1765182186234818</v>
       </c>
       <c r="F63">
@@ -32746,19 +32757,19 @@
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>-8.6032388663967604E-2</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>0.1161943319838057</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>0.20202429149797571</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="6">
         <v>0.20182186234817809</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="6">
         <v>0.48805668016194331</v>
       </c>
       <c r="G64">
@@ -32800,7 +32811,7 @@
       <c r="V64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="6">
         <v>0.89068825910931171</v>
       </c>
       <c r="X64">
@@ -32863,22 +32874,22 @@
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>0.10323886639676109</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
         <v>0.28906882591093119</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="6">
         <v>0.15546558704453439</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="6">
         <v>0.28987854251012152</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="6">
         <v>0.47894736842105262</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="6">
         <v>0.53785425101214568</v>
       </c>
       <c r="H65">
@@ -32917,10 +32928,10 @@
       <c r="V65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="6">
         <v>0.73805668016194326</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="6">
         <v>0.62692307692307692</v>
       </c>
       <c r="Y65">
@@ -32980,25 +32991,25 @@
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>-5.4655870445344132E-2</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>0.15566801619433199</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="6">
         <v>4.4331983805668017E-2</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="6">
         <v>-8.2793522267206487E-2</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="6">
         <v>0.40688259109311742</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="6">
         <v>0.60728744939271251</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="6">
         <v>0.33319838056680162</v>
       </c>
       <c r="I66">
@@ -33034,13 +33045,13 @@
       <c r="V66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="6">
         <v>0.40425101214574899</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="6">
         <v>0.40566801619433202</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="6">
         <v>0.2880566801619433</v>
       </c>
       <c r="Z66">
@@ -33097,16 +33108,16 @@
       <c r="V67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="6">
         <v>0.79251012145748989</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="6">
         <v>0.74473684210526314</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="6">
         <v>0.66437246963562746</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="6">
         <v>0.40506072874493931</v>
       </c>
       <c r="AA67">
@@ -33158,27 +33169,27 @@
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="6">
         <v>0.4597165991902834</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="6">
         <v>0.54797570850202437</v>
       </c>
-      <c r="Y68">
+      <c r="Y68" s="6">
         <v>0.48097165991902829</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="6">
         <v>0.54696356275303648</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="6">
         <v>0.49089068825910931</v>
       </c>
       <c r="AB68">
@@ -33237,22 +33248,22 @@
       <c r="V69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="6">
         <v>0.40769230769230769</v>
       </c>
-      <c r="X69">
+      <c r="X69" s="6">
         <v>0.43663967611336041</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="6">
         <v>0.25060728744939281</v>
       </c>
-      <c r="Z69">
+      <c r="Z69" s="6">
         <v>0.14736842105263159</v>
       </c>
-      <c r="AA69">
+      <c r="AA69" s="6">
         <v>0.3595141700404858</v>
       </c>
-      <c r="AB69">
+      <c r="AB69" s="6">
         <v>0.23744939271255061</v>
       </c>
       <c r="AC69">
@@ -33301,25 +33312,25 @@
       <c r="V70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="6">
         <v>0.57753036437246963</v>
       </c>
-      <c r="X70">
+      <c r="X70" s="6">
         <v>0.48886639676113358</v>
       </c>
-      <c r="Y70">
+      <c r="Y70" s="6">
         <v>0.54291497975708503</v>
       </c>
-      <c r="Z70">
+      <c r="Z70" s="6">
         <v>0.18157894736842109</v>
       </c>
-      <c r="AA70">
+      <c r="AA70" s="6">
         <v>0.40161943319838062</v>
       </c>
-      <c r="AB70">
+      <c r="AB70" s="6">
         <v>0.25566801619433199</v>
       </c>
-      <c r="AC70">
+      <c r="AC70" s="6">
         <v>0.53582995951417012</v>
       </c>
       <c r="AD70">
@@ -33413,28 +33424,28 @@
       <c r="V71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="6">
         <v>0.37995951417004048</v>
       </c>
-      <c r="X71">
+      <c r="X71" s="6">
         <v>0.40607287449392709</v>
       </c>
-      <c r="Y71">
+      <c r="Y71" s="6">
         <v>0.40789473684210531</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="6">
         <v>0.26234817813765182</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" s="6">
         <v>0.31659919028340078</v>
       </c>
-      <c r="AB71">
+      <c r="AB71" s="6">
         <v>0.31781376518218618</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="6">
         <v>0.45222672064777331</v>
       </c>
-      <c r="AD71">
+      <c r="AD71" s="6">
         <v>0.65344129554655872</v>
       </c>
       <c r="AE71">
@@ -33527,12 +33538,13 @@
       <c r="S72">
         <v>0.40614725013176051</v>
       </c>
+      <c r="AA72" s="6"/>
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>0.68218623481781382</v>
       </c>
       <c r="C73">
@@ -33595,10 +33607,10 @@
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>0.60040485829959511</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
         <v>0.34170040485829961</v>
       </c>
       <c r="D74">
@@ -33651,13 +33663,13 @@
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>0.38765182186234809</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <v>0.28582995951417001</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="6">
         <v>0.54939271255060729</v>
       </c>
       <c r="E75">
@@ -33707,16 +33719,16 @@
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="6">
         <v>0.40364372469635629</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>0.31072874493927122</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="6">
         <v>0.5633603238866397</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="6">
         <v>0.30890688259109311</v>
       </c>
       <c r="F76">
@@ -33820,19 +33832,19 @@
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="6">
         <v>0.29129554655870449</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="6">
         <v>0.40688259109311742</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>0.31842105263157888</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="6">
         <v>0.2445344129554656</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="6">
         <v>0.49210526315789471</v>
       </c>
       <c r="G77">
@@ -33937,22 +33949,22 @@
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>0.32975708502024292</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <v>0.22591093117408911</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="6">
         <v>0.41133603238866401</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="6">
         <v>0.1216599190283401</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="6">
         <v>0.57773279352226725</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="6">
         <v>0.4665991902834008</v>
       </c>
       <c r="H78">
@@ -33991,7 +34003,7 @@
       <c r="V78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="6">
         <v>0.92834008097165999</v>
       </c>
       <c r="X78">
@@ -34054,25 +34066,25 @@
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="6">
         <v>0.1368421052631579</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="6">
         <v>0.34736842105263149</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="6">
         <v>0.37004048582995952</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="6">
         <v>0.1030364372469636</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="6">
         <v>0.60668016194331986</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="6">
         <v>0.64109311740890684</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="6">
         <v>0.51174089068825912</v>
       </c>
       <c r="I79">
@@ -34108,10 +34120,10 @@
       <c r="V79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="6">
         <v>0.8261133603238866</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="6">
         <v>0.77368421052631575</v>
       </c>
       <c r="Y79">
@@ -34172,13 +34184,13 @@
       <c r="V80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="6">
         <v>0.53481781376518223</v>
       </c>
-      <c r="X80">
+      <c r="X80" s="6">
         <v>0.5149797570850202</v>
       </c>
-      <c r="Y80">
+      <c r="Y80" s="6">
         <v>0.66882591093117405</v>
       </c>
       <c r="Z80">
@@ -34233,25 +34245,25 @@
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W81">
+      <c r="W81" s="6">
         <v>0.58886639676113361</v>
       </c>
-      <c r="X81">
+      <c r="X81" s="6">
         <v>0.54716599190283399</v>
       </c>
-      <c r="Y81">
+      <c r="Y81" s="6">
         <v>0.66599190283400811</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="6">
         <v>0.59858299595141695</v>
       </c>
       <c r="AA81">
@@ -34306,19 +34318,19 @@
       <c r="V82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W82">
+      <c r="W82" s="6">
         <v>0.24170040485829961</v>
       </c>
-      <c r="X82">
+      <c r="X82" s="6">
         <v>0.19412955465587051</v>
       </c>
-      <c r="Y82">
+      <c r="Y82" s="6">
         <v>0.32449392712550612</v>
       </c>
-      <c r="Z82">
+      <c r="Z82" s="6">
         <v>0.58582995951417005</v>
       </c>
-      <c r="AA82">
+      <c r="AA82" s="6">
         <v>0.48016194331983802</v>
       </c>
       <c r="AB82">
@@ -34370,22 +34382,22 @@
       <c r="V83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W83">
+      <c r="W83" s="6">
         <v>0.55263157894736836</v>
       </c>
-      <c r="X83">
+      <c r="X83" s="6">
         <v>0.62064777327935228</v>
       </c>
-      <c r="Y83">
+      <c r="Y83" s="6">
         <v>0.55971659919028338</v>
       </c>
-      <c r="Z83">
+      <c r="Z83" s="6">
         <v>0.57935222672064768</v>
       </c>
-      <c r="AA83">
+      <c r="AA83" s="6">
         <v>0.60080971659919036</v>
       </c>
-      <c r="AB83">
+      <c r="AB83" s="6">
         <v>0.42368421052631577</v>
       </c>
       <c r="AC83">
@@ -34482,25 +34494,25 @@
       <c r="V84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W84">
+      <c r="W84" s="6">
         <v>0.4665991902834008</v>
       </c>
-      <c r="X84">
+      <c r="X84" s="6">
         <v>0.55789473684210522</v>
       </c>
-      <c r="Y84">
+      <c r="Y84" s="6">
         <v>0.45789473684210519</v>
       </c>
-      <c r="Z84">
+      <c r="Z84" s="6">
         <v>0.45384615384615379</v>
       </c>
-      <c r="AA84">
+      <c r="AA84" s="6">
         <v>0.52732793522267207</v>
       </c>
-      <c r="AB84">
+      <c r="AB84" s="6">
         <v>0.36255060728744942</v>
       </c>
-      <c r="AC84">
+      <c r="AC84" s="6">
         <v>0.48441295546558699</v>
       </c>
       <c r="AD84">
@@ -34599,28 +34611,28 @@
       <c r="V85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W85">
+      <c r="W85" s="6">
         <v>0.62813765182186243</v>
       </c>
-      <c r="X85">
+      <c r="X85" s="6">
         <v>0.71578947368421053</v>
       </c>
-      <c r="Y85">
+      <c r="Y85" s="6">
         <v>0.69878542510121455</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="6">
         <v>0.601417004048583</v>
       </c>
-      <c r="AA85">
+      <c r="AA85" s="6">
         <v>0.58380566801619427</v>
       </c>
-      <c r="AB85">
+      <c r="AB85" s="6">
         <v>0.37631578947368421</v>
       </c>
-      <c r="AC85">
+      <c r="AC85" s="6">
         <v>0.72449392712550609</v>
       </c>
-      <c r="AD85">
+      <c r="AD85" s="6">
         <v>0.62550607287449389</v>
       </c>
       <c r="AE85">
@@ -34662,7 +34674,7 @@
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>0.67834008097165999</v>
       </c>
       <c r="C86">
@@ -34718,10 +34730,10 @@
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>0.37591093117408908</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="6">
         <v>0.10060728744939269</v>
       </c>
       <c r="D87">
@@ -34781,13 +34793,13 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>0.37489878542510119</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <v>0.2107287449392713</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>0.48744939271255061</v>
       </c>
       <c r="E88">
@@ -34837,16 +34849,16 @@
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>0.28299595141700412</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="6">
         <v>0.1342105263157895</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>0.18765182186234819</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="6">
         <v>0.15080971659919029</v>
       </c>
       <c r="F89">
@@ -34893,19 +34905,19 @@
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="8">
         <v>0.1050607287449393</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="8">
         <v>7.0445344129554652E-2</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="8">
         <v>0.1524291497975708</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="8">
         <v>4.6558704453441291E-2</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="8">
         <v>0.5518218623481782</v>
       </c>
       <c r="G90" s="1">
@@ -35006,22 +35018,22 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>0.41234817813765179</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="6">
         <v>0.26052631578947372</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>0.40526315789473683</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="6">
         <v>0.3904858299595142</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="6">
         <v>0.56761133603238867</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="6">
         <v>0.60242914979757078</v>
       </c>
       <c r="H91">
@@ -35123,25 +35135,25 @@
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="6">
         <v>0.148582995951417</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="6">
         <v>0.12651821862348181</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="6">
         <v>0.22246963562753039</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="6">
         <v>1.4574898785425099E-2</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="6">
         <v>0.48481781376518218</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="6">
         <v>0.61862348178137649</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="6">
         <v>0.47105263157894739</v>
       </c>
       <c r="I92">
@@ -35177,7 +35189,7 @@
       <c r="V92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="6">
         <v>0.87368421052631584</v>
       </c>
       <c r="X92">
@@ -35241,10 +35253,10 @@
       <c r="V93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="6">
         <v>0.70263157894736838</v>
       </c>
-      <c r="X93">
+      <c r="X93" s="6">
         <v>0.69635627530364375</v>
       </c>
       <c r="Y93">
@@ -35303,21 +35315,21 @@
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="6">
         <v>0.35971659919028343</v>
       </c>
-      <c r="X94">
+      <c r="X94" s="6">
         <v>0.36538461538461542</v>
       </c>
-      <c r="Y94">
+      <c r="Y94" s="6">
         <v>0.667004048582996</v>
       </c>
       <c r="Z94">
@@ -35375,16 +35387,16 @@
       <c r="V95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W95">
+      <c r="W95" s="6">
         <v>0.70101214574898785</v>
       </c>
-      <c r="X95">
+      <c r="X95" s="6">
         <v>0.61801619433198374</v>
       </c>
-      <c r="Y95">
+      <c r="Y95" s="6">
         <v>0.67672064777327934</v>
       </c>
-      <c r="Z95">
+      <c r="Z95" s="6">
         <v>0.58906882591093124</v>
       </c>
       <c r="AA95">
@@ -35439,19 +35451,19 @@
       <c r="V96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W96">
+      <c r="W96" s="6">
         <v>0.2030364372469636</v>
       </c>
-      <c r="X96">
+      <c r="X96" s="6">
         <v>0.33056680161943319</v>
       </c>
-      <c r="Y96">
+      <c r="Y96" s="6">
         <v>0.37307692307692308</v>
       </c>
-      <c r="Z96">
+      <c r="Z96" s="6">
         <v>0.41396761133603238</v>
       </c>
-      <c r="AA96">
+      <c r="AA96" s="6">
         <v>0.33522267206477729</v>
       </c>
       <c r="AB96">
@@ -35551,22 +35563,22 @@
       <c r="V97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W97">
+      <c r="W97" s="6">
         <v>0.65526315789473688</v>
       </c>
-      <c r="X97">
+      <c r="X97" s="6">
         <v>0.74129554655870444</v>
       </c>
-      <c r="Y97">
+      <c r="Y97" s="6">
         <v>0.66639676113360324</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="6">
         <v>0.42550607287449388</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" s="6">
         <v>0.50647773279352226</v>
       </c>
-      <c r="AB97">
+      <c r="AB97" s="6">
         <v>0.33582995951417</v>
       </c>
       <c r="AC97">
@@ -35668,25 +35680,25 @@
       <c r="V98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W98">
+      <c r="W98" s="6">
         <v>0.68603238866396765</v>
       </c>
-      <c r="X98">
+      <c r="X98" s="6">
         <v>0.70101214574898785</v>
       </c>
-      <c r="Y98">
+      <c r="Y98" s="6">
         <v>0.70870445344129562</v>
       </c>
-      <c r="Z98">
+      <c r="Z98" s="6">
         <v>0.41052631578947368</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" s="6">
         <v>0.5726720647773279</v>
       </c>
-      <c r="AB98">
+      <c r="AB98" s="6">
         <v>0.42793522267206469</v>
       </c>
-      <c r="AC98">
+      <c r="AC98" s="6">
         <v>0.71700404858299605</v>
       </c>
       <c r="AD98">
@@ -35731,7 +35743,7 @@
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="6">
         <v>0.71963562753036436</v>
       </c>
       <c r="C99">
@@ -35785,28 +35797,28 @@
       <c r="V99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W99">
+      <c r="W99" s="6">
         <v>0.48279352226720651</v>
       </c>
-      <c r="X99">
+      <c r="X99" s="6">
         <v>0.51821862348178138</v>
       </c>
-      <c r="Y99">
+      <c r="Y99" s="6">
         <v>0.52004048582995954</v>
       </c>
-      <c r="Z99">
+      <c r="Z99" s="6">
         <v>0.33097165991902833</v>
       </c>
-      <c r="AA99">
+      <c r="AA99" s="6">
         <v>0.40829959514170039</v>
       </c>
-      <c r="AB99">
+      <c r="AB99" s="6">
         <v>0.52550607287449391</v>
       </c>
-      <c r="AC99">
+      <c r="AC99" s="6">
         <v>0.72085020242914988</v>
       </c>
-      <c r="AD99">
+      <c r="AD99" s="6">
         <v>0.70303643724696352</v>
       </c>
       <c r="AE99">
@@ -35848,10 +35860,10 @@
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="6">
         <v>0.47327935222672057</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="6">
         <v>0.34352226720647772</v>
       </c>
       <c r="D100">
@@ -35904,13 +35916,13 @@
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>0.54311740890688265</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="6">
         <v>0.40121457489878543</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <v>0.78198380566801617</v>
       </c>
       <c r="E101">
@@ -35967,16 +35979,16 @@
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="6">
         <v>0.1410931174089069</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="6">
         <v>0.23542510121457491</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>7.3481781376518215E-2</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="6">
         <v>8.6234817813765186E-2</v>
       </c>
       <c r="F102">
@@ -36023,19 +36035,19 @@
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="6">
         <v>0.14271255060728749</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="6">
         <v>0.2384615384615385</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>0.1089068825910931</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="6">
         <v>0.1202429149797571</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="6">
         <v>0.67348178137651826</v>
       </c>
       <c r="G103">
@@ -36079,22 +36091,22 @@
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="6">
         <v>0.29230769230769232</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="6">
         <v>0.31943319838056677</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>0.27530364372469629</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="6">
         <v>0.184412955465587</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="6">
         <v>0.40931174089068822</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="6">
         <v>0.54089068825910924</v>
       </c>
       <c r="H104">
@@ -36192,25 +36204,25 @@
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="6">
         <v>0.38319838056680161</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="6">
         <v>0.34230769230769231</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>0.31902834008097158</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="6">
         <v>0.23562753036437251</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="6">
         <v>0.44089068825910932</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="6">
         <v>0.455668016194332</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="6">
         <v>0.56255060728744943</v>
       </c>
       <c r="I105">
@@ -36310,7 +36322,7 @@
       <c r="V106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W106">
+      <c r="W106" s="6">
         <v>0.9469635627530365</v>
       </c>
       <c r="X106">
@@ -36371,18 +36383,18 @@
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="V107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W107">
+      <c r="W107" s="6">
         <v>0.8502024291497976</v>
       </c>
-      <c r="X107">
+      <c r="X107" s="6">
         <v>0.81923076923076921</v>
       </c>
       <c r="Y107">
@@ -36442,13 +36454,13 @@
       <c r="V108" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W108">
+      <c r="W108" s="6">
         <v>0.48279352226720651</v>
       </c>
-      <c r="X108">
+      <c r="X108" s="6">
         <v>0.48178137651821862</v>
       </c>
-      <c r="Y108">
+      <c r="Y108" s="6">
         <v>0.69311740890688256</v>
       </c>
       <c r="Z108">
@@ -36505,16 +36517,16 @@
       <c r="V109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W109">
+      <c r="W109" s="6">
         <v>0.7639676113360323</v>
       </c>
-      <c r="X109">
+      <c r="X109" s="6">
         <v>0.83097165991902833</v>
       </c>
-      <c r="Y109">
+      <c r="Y109" s="6">
         <v>0.84392712550607296</v>
       </c>
-      <c r="Z109">
+      <c r="Z109" s="6">
         <v>0.58825910931174086</v>
       </c>
       <c r="AA109">
@@ -36616,19 +36628,19 @@
       <c r="V110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W110">
+      <c r="W110" s="6">
         <v>0.67226720647773275</v>
       </c>
-      <c r="X110">
+      <c r="X110" s="6">
         <v>0.71740890688259107</v>
       </c>
-      <c r="Y110">
+      <c r="Y110" s="6">
         <v>0.75991902834008096</v>
       </c>
-      <c r="Z110">
+      <c r="Z110" s="6">
         <v>0.56417004048582997</v>
       </c>
-      <c r="AA110">
+      <c r="AA110" s="6">
         <v>0.80465587044534415</v>
       </c>
       <c r="AB110">
@@ -36733,22 +36745,22 @@
       <c r="V111" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W111">
+      <c r="W111" s="6">
         <v>0.73663967611336023</v>
       </c>
-      <c r="X111">
+      <c r="X111" s="6">
         <v>0.81012145748987852</v>
       </c>
-      <c r="Y111">
+      <c r="Y111" s="6">
         <v>0.80668016194331982</v>
       </c>
-      <c r="Z111">
+      <c r="Z111" s="6">
         <v>0.55748987854251009</v>
       </c>
-      <c r="AA111">
+      <c r="AA111" s="6">
         <v>0.84858299595141695</v>
       </c>
-      <c r="AB111">
+      <c r="AB111" s="6">
         <v>0.76234817813765188</v>
       </c>
       <c r="AC111">
@@ -36796,7 +36808,7 @@
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="6">
         <v>0.70485829959514168</v>
       </c>
       <c r="C112">
@@ -36850,25 +36862,25 @@
       <c r="V112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W112">
+      <c r="W112" s="6">
         <v>0.87874493927125508</v>
       </c>
-      <c r="X112">
+      <c r="X112" s="6">
         <v>0.88967611336032393</v>
       </c>
-      <c r="Y112">
+      <c r="Y112" s="6">
         <v>0.80829959514170047</v>
       </c>
-      <c r="Z112">
+      <c r="Z112" s="6">
         <v>0.60890688259109316</v>
       </c>
-      <c r="AA112">
+      <c r="AA112" s="6">
         <v>0.74838056680161935</v>
       </c>
-      <c r="AB112">
+      <c r="AB112" s="6">
         <v>0.64595141700404857</v>
       </c>
-      <c r="AC112">
+      <c r="AC112" s="6">
         <v>0.77672064777327932</v>
       </c>
       <c r="AD112">
@@ -36913,10 +36925,10 @@
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="6">
         <v>0.40020242914979759</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="6">
         <v>0.38340080971659918</v>
       </c>
       <c r="D113">
@@ -36967,28 +36979,28 @@
       <c r="V113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W113">
+      <c r="W113" s="6">
         <v>0.84757085020242917</v>
       </c>
-      <c r="X113">
+      <c r="X113" s="6">
         <v>0.88137651821862351</v>
       </c>
-      <c r="Y113">
+      <c r="Y113" s="6">
         <v>0.84898785425101209</v>
       </c>
-      <c r="Z113">
+      <c r="Z113" s="6">
         <v>0.56659919028340089</v>
       </c>
-      <c r="AA113">
+      <c r="AA113" s="6">
         <v>0.79453441295546556</v>
       </c>
-      <c r="AB113">
+      <c r="AB113" s="6">
         <v>0.71700404858299605</v>
       </c>
-      <c r="AC113">
+      <c r="AC113" s="6">
         <v>0.83643724696356281</v>
       </c>
-      <c r="AD113">
+      <c r="AD113" s="6">
         <v>0.83744939271255059</v>
       </c>
       <c r="AE113">
@@ -37030,13 +37042,13 @@
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="6">
         <v>0.46113360323886637</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="6">
         <v>0.35364372469635619</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="6">
         <v>0.76700404858299598</v>
       </c>
       <c r="E114">
@@ -37086,16 +37098,16 @@
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="6">
         <v>0.14129554655870449</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="6">
         <v>0.21356275303643721</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="6">
         <v>6.5182186234817807E-2</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="6">
         <v>7.975708502024291E-2</v>
       </c>
       <c r="F115">
@@ -37142,19 +37154,19 @@
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="6">
         <v>0.26659919028340079</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="6">
         <v>0.27874493927125499</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="6">
         <v>0.104251012145749</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="6">
         <v>0.1234817813765182</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="6">
         <v>0.82186234817813764</v>
       </c>
       <c r="G116">
@@ -37198,22 +37210,22 @@
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="6">
         <v>0.33582995951417</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="6">
         <v>0.32793522267206482</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="6">
         <v>0.14878542510121459</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="6">
         <v>0.18947368421052629</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="6">
         <v>0.60384615384615381</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="6">
         <v>0.77307692307692311</v>
       </c>
       <c r="H117">
@@ -37254,25 +37266,25 @@
       <c r="A118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="6">
         <v>0.3467611336032389</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="6">
         <v>0.26761133603238868</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="6">
         <v>0.23441295546558699</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="6">
         <v>0.28582995951417001</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="6">
         <v>0.62894736842105259</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="6">
         <v>0.72145748987854241</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="6">
         <v>0.75668016194331977</v>
       </c>
       <c r="I118">
@@ -37719,23 +37731,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView tabSelected="1" topLeftCell="S88" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>5</v>
@@ -37968,7 +37980,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>0.68421052631578949</v>
       </c>
       <c r="C8" s="2">
@@ -38022,7 +38034,7 @@
       <c r="V8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="6">
         <v>0.96133603238866394</v>
       </c>
       <c r="X8" s="2">
@@ -38084,10 +38096,10 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>0.42591093117408912</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>0.24433198380566801</v>
       </c>
       <c r="D9" s="2">
@@ -38138,10 +38150,10 @@
       <c r="V9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="6">
         <v>0.92408906882591091</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="6">
         <v>0.96417004048582988</v>
       </c>
       <c r="Y9" s="2">
@@ -38200,13 +38212,13 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>0.23522267206477729</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>0.16214574898785419</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>0.56032388663967603</v>
       </c>
       <c r="E10" s="2">
@@ -38254,13 +38266,13 @@
       <c r="V10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="6">
         <v>0.83502024291497978</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="6">
         <v>0.88157894736842113</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="6">
         <v>0.9263157894736842</v>
       </c>
       <c r="Z10" s="2">
@@ -38316,16 +38328,16 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>6.1740890688259123E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>0.18744939271255059</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>7.4493927125506065E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>4.1093117408906879E-2</v>
       </c>
       <c r="F11" s="2">
@@ -38370,16 +38382,16 @@
       <c r="V11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="6">
         <v>0.82125506072874488</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="6">
         <v>0.892914979757085</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="6">
         <v>0.90182186234817818</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="6">
         <v>0.91882591093117405</v>
       </c>
       <c r="AA11" s="2">
@@ -38432,19 +38444,19 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>-0.14331983805668019</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>7.4291497975708498E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>0.1147773279352227</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <v>0.1419028340080972</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>0.6912955465587044</v>
       </c>
       <c r="G12" s="2">
@@ -38486,19 +38498,19 @@
       <c r="V12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="6">
         <v>0.78319838056680158</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="6">
         <v>0.8651821862348178</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="6">
         <v>0.88643724696356285</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="6">
         <v>0.8882591093117409</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="6">
         <v>0.94736842105263164</v>
       </c>
       <c r="AB12" s="2">
@@ -38548,22 +38560,22 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>-3.0971659919028342E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>0.18987854251012151</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>-3.4008097165991909E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>4.2105263157894743E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>0.72631578947368425</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>0.50627530364372464</v>
       </c>
       <c r="H13" s="2">
@@ -38602,22 +38614,22 @@
       <c r="V13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="6">
         <v>0.92692307692307696</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="6">
         <v>0.9504048582995952</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="6">
         <v>0.92914979757085014</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="6">
         <v>0.8641700404858299</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AA13" s="6">
         <v>0.86052631578947369</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AB13" s="6">
         <v>0.82672064777327936</v>
       </c>
       <c r="AC13" s="2">
@@ -38664,25 +38676,25 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>0.3870445344129555</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>0.35789473684210532</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>0.12874493927125499</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="6">
         <v>-4.5748987854251022E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6">
         <v>0.49878542510121449</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="6">
         <v>0.27672064777327943</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <v>0.65364372469635623</v>
       </c>
       <c r="I14" s="2">
@@ -38718,25 +38730,25 @@
       <c r="V14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="6">
         <v>0.86639676113360331</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="6">
         <v>0.92408906882591091</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="6">
         <v>0.88927125506072879</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="6">
         <v>0.8433198380566802</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14" s="6">
         <v>0.87874493927125508</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB14" s="6">
         <v>0.84615384615384615</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="6">
         <v>0.93502024291497976</v>
       </c>
       <c r="AD14" s="2">
@@ -38780,28 +38792,28 @@
       <c r="V15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="6">
         <v>0.92611336032388658</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="6">
         <v>0.9054655870445345</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="6">
         <v>0.89898785425101213</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="6">
         <v>0.81983805668016196</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="6">
         <v>0.79311740890688265</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AB15" s="6">
         <v>0.73400809716599191</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="6">
         <v>0.94008097165991911</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15" s="6">
         <v>0.87348178137651822</v>
       </c>
       <c r="AE15" s="2">
@@ -38840,10 +38852,10 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -39018,7 +39030,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>0.56417004048582997</v>
       </c>
       <c r="C21" s="2">
@@ -39134,10 +39146,10 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>0.45546558704453438</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>0.2433198380566802</v>
       </c>
       <c r="D22" s="2">
@@ -39188,7 +39200,7 @@
       <c r="V22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="6">
         <v>0.94453441295546559</v>
       </c>
       <c r="X22" s="2">
@@ -39250,13 +39262,13 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>0.2568825910931174</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>0.13380566801619431</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>0.65182186234817818</v>
       </c>
       <c r="E23" s="2">
@@ -39304,10 +39316,10 @@
       <c r="V23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="6">
         <v>0.74291497975708509</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="6">
         <v>0.71295546558704459</v>
       </c>
       <c r="Y23" s="2">
@@ -39366,16 +39378,16 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>-4.3117408906882593E-2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>0.12469635627530359</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="6">
         <v>6.1943319838056683E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>8.6234817813765186E-2</v>
       </c>
       <c r="F24" s="2">
@@ -39420,13 +39432,13 @@
       <c r="V24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="6">
         <v>0.66821862348178129</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="6">
         <v>0.69635627530364375</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="6">
         <v>0.75</v>
       </c>
       <c r="Z24" s="2">
@@ -39482,19 +39494,19 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>1.194331983805668E-2</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>0.12651821862348181</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6">
         <v>7.2672064777327933E-2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6">
         <v>8.4008097165991905E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="6">
         <v>0.64230769230769236</v>
       </c>
       <c r="G25" s="2">
@@ -39536,16 +39548,16 @@
       <c r="V25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="6">
         <v>0.59311740890688258</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="6">
         <v>0.60303643724696354</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="6">
         <v>0.52975708502024288</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="6">
         <v>0.58117408906882595</v>
       </c>
       <c r="AA25" s="2">
@@ -39598,22 +39610,22 @@
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>0.28582995951417001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>0.2226720647773279</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="6">
         <v>0.15222672064777329</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="6">
         <v>0.1111336032388664</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="6">
         <v>0.62712550607287454</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="6">
         <v>0.58259109311740898</v>
       </c>
       <c r="H26" s="2">
@@ -39652,19 +39664,19 @@
       <c r="V26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="6">
         <v>0.63178137651821864</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="6">
         <v>0.65809716599190282</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="6">
         <v>0.30850202429149798</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="6">
         <v>0.40526315789473683</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26" s="6">
         <v>0.67753036437246961</v>
       </c>
       <c r="AB26" s="2">
@@ -39714,25 +39726,25 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>0.28663967611336028</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>0.25829959514170042</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <v>0.25951417004048583</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="6">
         <v>0.16113360323886641</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6">
         <v>0.41599190283400811</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="6">
         <v>0.58724696356275297</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <v>0.64716599190283408</v>
       </c>
       <c r="I27" s="2">
@@ -39768,22 +39780,22 @@
       <c r="V27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="6">
         <v>0.66133603238866401</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="6">
         <v>0.70566801619433206</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="6">
         <v>0.45769230769230768</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="6">
         <v>0.32753036437246957</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="6">
         <v>0.57773279352226725</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AB27" s="6">
         <v>0.4672064777327935</v>
       </c>
       <c r="AC27" s="2">
@@ -39830,25 +39842,25 @@
       <c r="V28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="6">
         <v>0.71275303643724697</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="6">
         <v>0.73238866396761138</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="6">
         <v>0.69048582995951413</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="6">
         <v>0.55809716599190284</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="6">
         <v>0.62186234817813757</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AB28" s="6">
         <v>0.44412955465587051</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28" s="6">
         <v>0.8018218623481782</v>
       </c>
       <c r="AD28" s="2">
@@ -39890,36 +39902,36 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W29" s="6">
         <v>0.76113360323886636</v>
       </c>
-      <c r="X29" s="2">
+      <c r="X29" s="6">
         <v>0.75202429149797567</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Y29" s="6">
         <v>0.54898785425101215</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29" s="6">
         <v>0.33684210526315789</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="6">
         <v>0.50020242914979762</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AB29" s="6">
         <v>0.53380566801619433</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AC29" s="6">
         <v>0.80607287449392706</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="6">
         <v>0.73724696356275299</v>
       </c>
       <c r="AE29" s="2">
@@ -39955,6 +39967,9 @@
       <c r="AR29" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AC30" s="6"/>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="W31" s="1" t="s">
@@ -40074,7 +40089,7 @@
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>0.57712550607287449</v>
       </c>
       <c r="C34" s="2">
@@ -40184,10 +40199,10 @@
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>0.49757085020242919</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>0.34514170040485831</v>
       </c>
       <c r="D35" s="2">
@@ -40300,13 +40315,13 @@
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>0.40242914979757088</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>0.1825910931174089</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>0.72327935222672068</v>
       </c>
       <c r="E36" s="2">
@@ -40354,7 +40369,7 @@
       <c r="V36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="6">
         <v>0.97307692307692306</v>
       </c>
       <c r="X36" s="2">
@@ -40416,16 +40431,16 @@
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>-0.10870445344129551</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>-3.6639676113360317E-2</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>-1.133603238866397E-2</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6">
         <v>0.2091093117408907</v>
       </c>
       <c r="F37" s="2">
@@ -40470,10 +40485,10 @@
       <c r="V37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="6">
         <v>0.78603238866396763</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X37" s="6">
         <v>0.78400809716599185</v>
       </c>
       <c r="Y37" s="2">
@@ -40532,19 +40547,19 @@
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>2.0445344129554659E-2</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>0.1362348178137652</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <v>0.1362348178137652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <v>0.1307692307692308</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="6">
         <v>0.61842105263157887</v>
       </c>
       <c r="G38" s="2">
@@ -40586,13 +40601,13 @@
       <c r="V38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W38" s="2">
+      <c r="W38" s="6">
         <v>0.61052631578947369</v>
       </c>
-      <c r="X38" s="2">
+      <c r="X38" s="6">
         <v>0.63724696356275301</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Y38" s="6">
         <v>0.84838056680161944</v>
       </c>
       <c r="Z38" s="2">
@@ -40648,22 +40663,22 @@
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>0.1469635627530364</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="6">
         <v>0.20870445344129551</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="6">
         <v>0.15789473684210531</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="6">
         <v>0.25465587044534421</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="6">
         <v>0.58319838056680162</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="6">
         <v>0.46902834008097172</v>
       </c>
       <c r="H39" s="2">
@@ -40702,16 +40717,16 @@
       <c r="V39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39" s="6">
         <v>0.7949392712550607</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X39" s="6">
         <v>0.73218623481781375</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Y39" s="6">
         <v>0.76133603238866399</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z39" s="6">
         <v>0.54757085020242924</v>
       </c>
       <c r="AA39" s="2">
@@ -40764,25 +40779,25 @@
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>0.30202429149797572</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>0.28137651821862347</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="6">
         <v>0.43805668016194332</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="6">
         <v>0.30526315789473679</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="6">
         <v>0.40809716599190282</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="6">
         <v>0.61275303643724699</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="6">
         <v>0.58076923076923082</v>
       </c>
       <c r="I40" s="2">
@@ -40818,19 +40833,19 @@
       <c r="V40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W40" s="2">
+      <c r="W40" s="6">
         <v>0.68380566801619436</v>
       </c>
-      <c r="X40" s="2">
+      <c r="X40" s="6">
         <v>0.66295546558704455</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y40" s="6">
         <v>0.49736842105263163</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="6">
         <v>0.41275303643724692</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40" s="6">
         <v>0.6912955465587044</v>
       </c>
       <c r="AB40" s="2">
@@ -40877,25 +40892,26 @@
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="G41" s="6"/>
       <c r="V41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="6">
         <v>0.70182186234817823</v>
       </c>
-      <c r="X41" s="2">
+      <c r="X41" s="6">
         <v>0.6878542510121457</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Y41" s="6">
         <v>0.70465587044534417</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="6">
         <v>0.56983805668016196</v>
       </c>
-      <c r="AA41" s="2">
+      <c r="AA41" s="6">
         <v>0.69068825910931164</v>
       </c>
-      <c r="AB41" s="2">
+      <c r="AB41" s="6">
         <v>0.53927125506072882</v>
       </c>
       <c r="AC41" s="2">
@@ -40940,33 +40956,33 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="6">
         <v>0.73157894736842111</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="6">
         <v>0.69797570850202439</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="6">
         <v>0.72287449392712555</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="6">
         <v>0.60121457489878549</v>
       </c>
-      <c r="AA42" s="2">
+      <c r="AA42" s="6">
         <v>0.64433198380566792</v>
       </c>
-      <c r="AB42" s="2">
+      <c r="AB42" s="6">
         <v>0.45222672064777331</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AC42" s="6">
         <v>0.82246963562753039</v>
       </c>
       <c r="AD42" s="2">
@@ -41010,28 +41026,28 @@
       <c r="V43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="6">
         <v>0.67408906882591091</v>
       </c>
-      <c r="X43" s="2">
+      <c r="X43" s="6">
         <v>0.67591093117408907</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y43" s="6">
         <v>0.64878542510121451</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="6">
         <v>0.56720647773279353</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="6">
         <v>0.57327935222672066</v>
       </c>
-      <c r="AB43" s="2">
+      <c r="AB43" s="6">
         <v>0.45060728744939271</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AC43" s="6">
         <v>0.76639676113360322</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43" s="6">
         <v>0.84939271255060722</v>
       </c>
       <c r="AE43" s="2">
@@ -41184,7 +41200,7 @@
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>0.72570850202429149</v>
       </c>
       <c r="C47" s="2">
@@ -41240,10 +41256,10 @@
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>0.64048582995951409</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="6">
         <v>0.53178137651821866</v>
       </c>
       <c r="D48" s="2">
@@ -41350,13 +41366,13 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>0.39331983805668008</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="6">
         <v>0.2862348178137652</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="6">
         <v>0.73218623481781375</v>
       </c>
       <c r="E49" s="2">
@@ -41466,16 +41482,16 @@
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>0.27469635627530359</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="6">
         <v>0.32287449392712553</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="6">
         <v>0.30465587044534409</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="6">
         <v>0.22834008097165989</v>
       </c>
       <c r="F50" s="2">
@@ -41520,7 +41536,7 @@
       <c r="V50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W50" s="6">
         <v>0.98947368421052628</v>
       </c>
       <c r="X50" s="2">
@@ -41582,19 +41598,19 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>0.1095141700404858</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="6">
         <v>0.23198380566801621</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="6">
         <v>0.29676113360323891</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="6">
         <v>0.30647773279352231</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="6">
         <v>0.69412955465587045</v>
       </c>
       <c r="G51" s="2">
@@ -41636,10 +41652,10 @@
       <c r="V51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W51" s="2">
+      <c r="W51" s="6">
         <v>0.88340080971659918</v>
       </c>
-      <c r="X51" s="2">
+      <c r="X51" s="6">
         <v>0.87125506072874492</v>
       </c>
       <c r="Y51" s="2">
@@ -41698,22 +41714,22 @@
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>0.23704453441295539</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="6">
         <v>0.34473684210526317</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="6">
         <v>0.25607287449392713</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="6">
         <v>0.15688259109311739</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="6">
         <v>0.58623481781376519</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="6">
         <v>0.53360323886639671</v>
       </c>
       <c r="H52" s="2">
@@ -41752,13 +41768,13 @@
       <c r="V52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W52" s="2">
+      <c r="W52" s="6">
         <v>0.69068825910931164</v>
       </c>
-      <c r="X52" s="2">
+      <c r="X52" s="6">
         <v>0.71052631578947367</v>
       </c>
-      <c r="Y52" s="2">
+      <c r="Y52" s="6">
         <v>0.81518218623481786</v>
       </c>
       <c r="Z52" s="2">
@@ -41814,25 +41830,25 @@
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>0.5668016194331984</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="6">
         <v>0.45931174089068832</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="6">
         <v>0.53582995951417012</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="6">
         <v>0.24149797570850201</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="6">
         <v>0.52570850202429142</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="6">
         <v>0.47044534412955458</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="6">
         <v>0.60566801619433208</v>
       </c>
       <c r="I53" s="2">
@@ -41868,16 +41884,16 @@
       <c r="V53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W53" s="2">
+      <c r="W53" s="6">
         <v>0.86275303643724699</v>
       </c>
-      <c r="X53" s="2">
+      <c r="X53" s="6">
         <v>0.84898785425101209</v>
       </c>
-      <c r="Y53" s="2">
+      <c r="Y53" s="6">
         <v>0.85101214574898787</v>
       </c>
-      <c r="Z53" s="2">
+      <c r="Z53" s="6">
         <v>0.78562753036437249</v>
       </c>
       <c r="AA53" s="2">
@@ -41930,19 +41946,19 @@
       <c r="V54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W54" s="6">
         <v>0.66578947368421049</v>
       </c>
-      <c r="X54" s="2">
+      <c r="X54" s="6">
         <v>0.65404858299595148</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="Y54" s="6">
         <v>0.72165991902834004</v>
       </c>
-      <c r="Z54" s="2">
+      <c r="Z54" s="6">
         <v>0.73886639676113364</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AA54" s="6">
         <v>0.80829959514170047</v>
       </c>
       <c r="AB54" s="2">
@@ -41990,30 +42006,30 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W55" s="2">
+      <c r="W55" s="6">
         <v>0.8261133603238866</v>
       </c>
-      <c r="X55" s="2">
+      <c r="X55" s="6">
         <v>0.82408906882591093</v>
       </c>
-      <c r="Y55" s="2">
+      <c r="Y55" s="6">
         <v>0.74878542510121449</v>
       </c>
-      <c r="Z55" s="2">
+      <c r="Z55" s="6">
         <v>0.69311740890688256</v>
       </c>
-      <c r="AA55" s="2">
+      <c r="AA55" s="6">
         <v>0.86801619433198374</v>
       </c>
-      <c r="AB55" s="2">
+      <c r="AB55" s="6">
         <v>0.73542510121457494</v>
       </c>
       <c r="AC55" s="2">
@@ -42060,25 +42076,25 @@
       <c r="V56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W56" s="2">
+      <c r="W56" s="6">
         <v>0.90566801619433202</v>
       </c>
-      <c r="X56" s="2">
+      <c r="X56" s="6">
         <v>0.90161943319838056</v>
       </c>
-      <c r="Y56" s="2">
+      <c r="Y56" s="6">
         <v>0.82044534412955472</v>
       </c>
-      <c r="Z56" s="2">
+      <c r="Z56" s="6">
         <v>0.72955465587044532</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AA56" s="6">
         <v>0.92813765182186236</v>
       </c>
-      <c r="AB56" s="2">
+      <c r="AB56" s="6">
         <v>0.7453441295546559</v>
       </c>
-      <c r="AC56" s="2">
+      <c r="AC56" s="6">
         <v>0.89352226720647776</v>
       </c>
       <c r="AD56" s="2">
@@ -42122,28 +42138,28 @@
       <c r="V57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W57" s="2">
+      <c r="W57" s="6">
         <v>0.86336032388663975</v>
       </c>
-      <c r="X57" s="2">
+      <c r="X57" s="6">
         <v>0.87591093117408902</v>
       </c>
-      <c r="Y57" s="2">
+      <c r="Y57" s="6">
         <v>0.76376518218623479</v>
       </c>
-      <c r="Z57" s="2">
+      <c r="Z57" s="6">
         <v>0.71356275303643724</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AA57" s="6">
         <v>0.87570850202429151</v>
       </c>
-      <c r="AB57" s="2">
+      <c r="AB57" s="6">
         <v>0.78319838056680158</v>
       </c>
-      <c r="AC57" s="2">
+      <c r="AC57" s="6">
         <v>0.87429149797570849</v>
       </c>
-      <c r="AD57" s="2">
+      <c r="AD57" s="6">
         <v>0.91943319838056681</v>
       </c>
       <c r="AE57" s="2">
@@ -42229,6 +42245,7 @@
       <c r="S58" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -42296,7 +42313,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>0.64149797570850198</v>
       </c>
       <c r="C60" s="2">
@@ -42352,10 +42369,10 @@
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>0.39311740890688263</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>0.39676113360323889</v>
       </c>
       <c r="D61" s="2">
@@ -42408,13 +42425,13 @@
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="6">
         <v>0.19392712550607291</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="6">
         <v>0.26720647773279349</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="6">
         <v>0.63623481781376523</v>
       </c>
       <c r="E62" s="2">
@@ -42518,16 +42535,16 @@
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>2.3279352226720649E-2</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="6">
         <v>0.2955465587044534</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="6">
         <v>0.2275303643724696</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="6">
         <v>0.1212550607287449</v>
       </c>
       <c r="F63" s="2">
@@ -42634,19 +42651,19 @@
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="6">
         <v>-6.8218623481781371E-2</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="6">
         <v>0.15485829959514169</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="6">
         <v>0.2172064777327935</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="6">
         <v>8.6842105263157887E-2</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="6">
         <v>0.44311740890688261</v>
       </c>
       <c r="G64" s="2">
@@ -42688,7 +42705,7 @@
       <c r="V64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W64" s="2">
+      <c r="W64" s="6">
         <v>0.97692307692307689</v>
       </c>
       <c r="X64" s="2">
@@ -42750,22 +42767,22 @@
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="6">
         <v>6.2145748987854257E-2</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="6">
         <v>0.21963562753036439</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="6">
         <v>0.1702429149797571</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="6">
         <v>0.10202429149797571</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="6">
         <v>0.35809716599190278</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="6">
         <v>0.45708502024291497</v>
       </c>
       <c r="H65" s="2">
@@ -42804,10 +42821,10 @@
       <c r="V65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W65" s="2">
+      <c r="W65" s="6">
         <v>0.85789473684210527</v>
       </c>
-      <c r="X65" s="2">
+      <c r="X65" s="6">
         <v>0.84230769230769231</v>
       </c>
       <c r="Y65" s="2">
@@ -42866,25 +42883,25 @@
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="6">
         <v>-2.8744939271255061E-2</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="6">
         <v>0.15748987854251009</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="6">
         <v>0.16295546558704449</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="6">
         <v>-0.16234817813765179</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="6">
         <v>0.17874493927125509</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="6">
         <v>0.55344129554655874</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="6">
         <v>0.38117408906882588</v>
       </c>
       <c r="I66" s="2">
@@ -42920,13 +42937,13 @@
       <c r="V66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W66" s="2">
+      <c r="W66" s="6">
         <v>0.62854251012145756</v>
       </c>
-      <c r="X66" s="2">
+      <c r="X66" s="6">
         <v>0.63299595141700404</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="Y66" s="6">
         <v>0.67550607287449393</v>
       </c>
       <c r="Z66" s="2">
@@ -42979,19 +42996,21 @@
       </c>
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+      <c r="F67" s="6"/>
       <c r="V67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W67" s="2">
+      <c r="W67" s="6">
         <v>0.7465587044534413</v>
       </c>
-      <c r="X67" s="2">
+      <c r="X67" s="6">
         <v>0.74736842105263157</v>
       </c>
-      <c r="Y67" s="2">
+      <c r="Y67" s="6">
         <v>0.69190283400809716</v>
       </c>
-      <c r="Z67" s="2">
+      <c r="Z67" s="6">
         <v>0.61720647773279358</v>
       </c>
       <c r="AA67" s="2">
@@ -43042,27 +43061,27 @@
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W68" s="2">
+      <c r="W68" s="6">
         <v>0.68724696356275305</v>
       </c>
-      <c r="X68" s="2">
+      <c r="X68" s="6">
         <v>0.7441295546558705</v>
       </c>
-      <c r="Y68" s="2">
+      <c r="Y68" s="6">
         <v>0.64676113360323884</v>
       </c>
-      <c r="Z68" s="2">
+      <c r="Z68" s="6">
         <v>0.648582995951417</v>
       </c>
-      <c r="AA68" s="2">
+      <c r="AA68" s="6">
         <v>0.79352226720647778</v>
       </c>
       <c r="AB68" s="2">
@@ -43112,22 +43131,22 @@
       <c r="V69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W69" s="2">
+      <c r="W69" s="6">
         <v>0.66093117408906876</v>
       </c>
-      <c r="X69" s="2">
+      <c r="X69" s="6">
         <v>0.62125506072874492</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="Y69" s="6">
         <v>0.66336032388663968</v>
       </c>
-      <c r="Z69" s="2">
+      <c r="Z69" s="6">
         <v>0.52712550607287445</v>
       </c>
-      <c r="AA69" s="2">
+      <c r="AA69" s="6">
         <v>0.58238866396761135</v>
       </c>
-      <c r="AB69" s="2">
+      <c r="AB69" s="6">
         <v>0.59898785425101209</v>
       </c>
       <c r="AC69" s="2">
@@ -43174,25 +43193,25 @@
       <c r="V70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W70" s="2">
+      <c r="W70" s="6">
         <v>0.76093117408906885</v>
       </c>
-      <c r="X70" s="2">
+      <c r="X70" s="6">
         <v>0.70303643724696352</v>
       </c>
-      <c r="Y70" s="2">
+      <c r="Y70" s="6">
         <v>0.72044534412955474</v>
       </c>
-      <c r="Z70" s="2">
+      <c r="Z70" s="6">
         <v>0.47631578947368419</v>
       </c>
-      <c r="AA70" s="2">
+      <c r="AA70" s="6">
         <v>0.52935222672064774</v>
       </c>
-      <c r="AB70" s="2">
+      <c r="AB70" s="6">
         <v>0.53198380566801617</v>
       </c>
-      <c r="AC70" s="2">
+      <c r="AC70" s="6">
         <v>0.79797570850202437</v>
       </c>
       <c r="AD70" s="2">
@@ -43284,28 +43303,28 @@
       <c r="V71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W71" s="2">
+      <c r="W71" s="6">
         <v>0.61133603238866396</v>
       </c>
-      <c r="X71" s="2">
+      <c r="X71" s="6">
         <v>0.60080971659919036</v>
       </c>
-      <c r="Y71" s="2">
+      <c r="Y71" s="6">
         <v>0.56356275303643721</v>
       </c>
-      <c r="Z71" s="2">
+      <c r="Z71" s="6">
         <v>0.51376518218623479</v>
       </c>
-      <c r="AA71" s="2">
+      <c r="AA71" s="6">
         <v>0.48967611336032391</v>
       </c>
-      <c r="AB71" s="2">
+      <c r="AB71" s="6">
         <v>0.60344129554655868</v>
       </c>
-      <c r="AC71" s="2">
+      <c r="AC71" s="6">
         <v>0.71214574898785432</v>
       </c>
-      <c r="AD71" s="2">
+      <c r="AD71" s="6">
         <v>0.74331983805668023</v>
       </c>
       <c r="AE71" s="2">
@@ -43402,7 +43421,7 @@
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="6">
         <v>0.61862348178137649</v>
       </c>
       <c r="C73" s="2">
@@ -43464,10 +43483,10 @@
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="6">
         <v>0.42469635627530361</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="6">
         <v>0.42449392712550599</v>
       </c>
       <c r="D74" s="2">
@@ -43520,13 +43539,13 @@
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>0.15445344129554661</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="6">
         <v>0.2255060728744939</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="6">
         <v>0.60303643724696354</v>
       </c>
       <c r="E75" s="2">
@@ -43576,16 +43595,16 @@
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="6">
         <v>8.3603238866396756E-2</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="6">
         <v>0.27469635627530359</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="6">
         <v>0.25506072874493918</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="6">
         <v>0.16882591093117411</v>
       </c>
       <c r="F76" s="2">
@@ -43686,19 +43705,19 @@
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="6">
         <v>9.8178137651821859E-2</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="6">
         <v>0.28380566801619428</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="6">
         <v>0.1216599190283401</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="6">
         <v>0.19129554655870451</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="6">
         <v>0.38805668016194328</v>
       </c>
       <c r="G77" s="2">
@@ -43802,22 +43821,22 @@
       <c r="A78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="6">
         <v>0.19433198380566799</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="6">
         <v>0.26821862348178138</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="6">
         <v>7.1457489878542502E-2</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="6">
         <v>7.2267206477732798E-2</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="6">
         <v>0.351417004048583</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="6">
         <v>0.40910931174089071</v>
       </c>
       <c r="H78" s="2">
@@ -43856,7 +43875,7 @@
       <c r="V78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W78" s="2">
+      <c r="W78" s="6">
         <v>0.96255060728744946</v>
       </c>
       <c r="X78" s="2">
@@ -43918,25 +43937,25 @@
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="6">
         <v>0.15546558704453439</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="6">
         <v>0.3236842105263158</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="6">
         <v>0.30688259109311739</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="6">
         <v>0.187246963562753</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="6">
         <v>0.40607287449392709</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="6">
         <v>0.63319838056680156</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="6">
         <v>0.38522267206477728</v>
       </c>
       <c r="I79" s="2">
@@ -43972,10 +43991,10 @@
       <c r="V79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W79" s="6">
         <v>0.87105263157894741</v>
       </c>
-      <c r="X79" s="2">
+      <c r="X79" s="6">
         <v>0.86700404858299596</v>
       </c>
       <c r="Y79" s="2">
@@ -44034,13 +44053,13 @@
       <c r="V80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W80" s="2">
+      <c r="W80" s="6">
         <v>0.79534412955465583</v>
       </c>
-      <c r="X80" s="2">
+      <c r="X80" s="6">
         <v>0.75728744939271253</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Y80" s="6">
         <v>0.84068825910931166</v>
       </c>
       <c r="Z80" s="2">
@@ -44094,24 +44113,24 @@
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="V81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W81" s="2">
+      <c r="W81" s="6">
         <v>0.71963562753036436</v>
       </c>
-      <c r="X81" s="2">
+      <c r="X81" s="6">
         <v>0.70263157894736838</v>
       </c>
-      <c r="Y81" s="2">
+      <c r="Y81" s="6">
         <v>0.77307692307692311</v>
       </c>
-      <c r="Z81" s="2">
+      <c r="Z81" s="6">
         <v>0.80364372469635625</v>
       </c>
       <c r="AA81" s="2">
@@ -44164,19 +44183,19 @@
       <c r="V82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W82" s="2">
+      <c r="W82" s="6">
         <v>0.4694331983805668</v>
       </c>
-      <c r="X82" s="2">
+      <c r="X82" s="6">
         <v>0.42024291497975708</v>
       </c>
-      <c r="Y82" s="2">
+      <c r="Y82" s="6">
         <v>0.48421052631578948</v>
       </c>
-      <c r="Z82" s="2">
+      <c r="Z82" s="6">
         <v>0.65202429149797569</v>
       </c>
-      <c r="AA82" s="2">
+      <c r="AA82" s="6">
         <v>0.70060728744939271</v>
       </c>
       <c r="AB82" s="2">
@@ -44226,22 +44245,22 @@
       <c r="V83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W83" s="2">
+      <c r="W83" s="6">
         <v>0.88866396761133604</v>
       </c>
-      <c r="X83" s="2">
+      <c r="X83" s="6">
         <v>0.87327935222672071</v>
       </c>
-      <c r="Y83" s="2">
+      <c r="Y83" s="6">
         <v>0.815587044534413</v>
       </c>
-      <c r="Z83" s="2">
+      <c r="Z83" s="6">
         <v>0.82834008097166001</v>
       </c>
-      <c r="AA83" s="2">
+      <c r="AA83" s="6">
         <v>0.75566801619433199</v>
       </c>
-      <c r="AB83" s="2">
+      <c r="AB83" s="6">
         <v>0.55202429149797561</v>
       </c>
       <c r="AC83" s="2">
@@ -44336,25 +44355,25 @@
       <c r="V84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W84" s="2">
+      <c r="W84" s="6">
         <v>0.77914979757085012</v>
       </c>
-      <c r="X84" s="2">
+      <c r="X84" s="6">
         <v>0.76376518218623479</v>
       </c>
-      <c r="Y84" s="2">
+      <c r="Y84" s="6">
         <v>0.69008097165991911</v>
       </c>
-      <c r="Z84" s="2">
+      <c r="Z84" s="6">
         <v>0.7038461538461539</v>
       </c>
-      <c r="AA84" s="2">
+      <c r="AA84" s="6">
         <v>0.6912955465587044</v>
       </c>
-      <c r="AB84" s="2">
+      <c r="AB84" s="6">
         <v>0.53441295546558709</v>
       </c>
-      <c r="AC84" s="2">
+      <c r="AC84" s="6">
         <v>0.76659919028340084</v>
       </c>
       <c r="AD84" s="2">
@@ -44452,28 +44471,28 @@
       <c r="V85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W85" s="2">
+      <c r="W85" s="6">
         <v>0.91214574898785428</v>
       </c>
-      <c r="X85" s="2">
+      <c r="X85" s="6">
         <v>0.88927125506072879</v>
       </c>
-      <c r="Y85" s="2">
+      <c r="Y85" s="6">
         <v>0.82914979757085017</v>
       </c>
-      <c r="Z85" s="2">
+      <c r="Z85" s="6">
         <v>0.80850202429149798</v>
       </c>
-      <c r="AA85" s="2">
+      <c r="AA85" s="6">
         <v>0.76275303643724701</v>
       </c>
-      <c r="AB85" s="2">
+      <c r="AB85" s="6">
         <v>0.49858299595141697</v>
       </c>
-      <c r="AC85" s="2">
+      <c r="AC85" s="6">
         <v>0.86801619433198374</v>
       </c>
-      <c r="AD85" s="2">
+      <c r="AD85" s="6">
         <v>0.8190283400809717</v>
       </c>
       <c r="AE85" s="2">
@@ -44514,7 +44533,7 @@
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="6">
         <v>0.66133603238866401</v>
       </c>
       <c r="C86" s="2">
@@ -44565,15 +44584,16 @@
       <c r="S86" s="2">
         <v>9.2063395075605903E-2</v>
       </c>
+      <c r="AC86" s="6"/>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="6">
         <v>0.42064777327935221</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="6">
         <v>0.30951417004048581</v>
       </c>
       <c r="D87" s="2">
@@ -44632,13 +44652,13 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="6">
         <v>0.35222672064777327</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="6">
         <v>0.2050607287449393</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="6">
         <v>0.59838056680161944</v>
       </c>
       <c r="E88" s="2">
@@ -44688,16 +44708,16 @@
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="6">
         <v>-2.8340080971659921E-3</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="6">
         <v>0.165587044534413</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="6">
         <v>7.8542510121457493E-2</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="6">
         <v>-4.8582995951416998E-2</v>
       </c>
       <c r="F89" s="2">
@@ -44744,19 +44764,19 @@
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="6">
         <v>-3.9878542510121448E-2</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="6">
         <v>0.15809716599190279</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="6">
         <v>0.16032388663967609</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="6">
         <v>2.7732793522267211E-2</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="6">
         <v>0.65506072874493926</v>
       </c>
       <c r="G90" s="2">
@@ -44854,22 +44874,22 @@
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="6">
         <v>0.31072874493927122</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="6">
         <v>0.39028340080971657</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="6">
         <v>0.34433198380566798</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="6">
         <v>0.20829959514170041</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="6">
         <v>0.67834008097165999</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="6">
         <v>0.59979757085020247</v>
       </c>
       <c r="H91" s="2">
@@ -44970,25 +44990,25 @@
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="6">
         <v>0.12894736842105259</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="6">
         <v>0.27348178137651818</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="6">
         <v>0.29797570850202432</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="6">
         <v>6.7004048582995954E-2</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="6">
         <v>0.49878542510121449</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="6">
         <v>0.58340080971659913</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="6">
         <v>0.56882591093117407</v>
       </c>
       <c r="I92" s="2">
@@ -45024,7 +45044,7 @@
       <c r="V92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W92" s="2">
+      <c r="W92" s="6">
         <v>0.96295546558704459</v>
       </c>
       <c r="X92" s="2">
@@ -45083,13 +45103,14 @@
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="E93" s="6"/>
       <c r="V93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W93" s="2">
+      <c r="W93" s="6">
         <v>0.83805668016194335</v>
       </c>
-      <c r="X93" s="2">
+      <c r="X93" s="6">
         <v>0.8433198380566802</v>
       </c>
       <c r="Y93" s="2">
@@ -45146,21 +45167,21 @@
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W94" s="2">
+      <c r="W94" s="6">
         <v>0.57995951417004044</v>
       </c>
-      <c r="X94" s="2">
+      <c r="X94" s="6">
         <v>0.55202429149797561</v>
       </c>
-      <c r="Y94" s="2">
+      <c r="Y94" s="6">
         <v>0.78542510121457487</v>
       </c>
       <c r="Z94" s="2">
@@ -45216,16 +45237,16 @@
       <c r="V95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W95" s="2">
+      <c r="W95" s="6">
         <v>0.87348178137651822</v>
       </c>
-      <c r="X95" s="2">
+      <c r="X95" s="6">
         <v>0.83400809716599189</v>
       </c>
-      <c r="Y95" s="2">
+      <c r="Y95" s="6">
         <v>0.77935222672064774</v>
       </c>
-      <c r="Z95" s="2">
+      <c r="Z95" s="6">
         <v>0.66720647773279362</v>
       </c>
       <c r="AA95" s="2">
@@ -45278,19 +45299,19 @@
       <c r="V96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W96" s="2">
+      <c r="W96" s="6">
         <v>0.77793522267206483</v>
       </c>
-      <c r="X96" s="2">
+      <c r="X96" s="6">
         <v>0.79979757085020242</v>
       </c>
-      <c r="Y96" s="2">
+      <c r="Y96" s="6">
         <v>0.71821862348178134</v>
       </c>
-      <c r="Z96" s="2">
+      <c r="Z96" s="6">
         <v>0.61396761133603239</v>
       </c>
-      <c r="AA96" s="2">
+      <c r="AA96" s="6">
         <v>0.83218623481781384</v>
       </c>
       <c r="AB96" s="2">
@@ -45388,22 +45409,22 @@
       <c r="V97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W97" s="2">
+      <c r="W97" s="6">
         <v>0.83137651821862346</v>
       </c>
-      <c r="X97" s="2">
+      <c r="X97" s="6">
         <v>0.86194331983805672</v>
       </c>
-      <c r="Y97" s="2">
+      <c r="Y97" s="6">
         <v>0.79433198380566794</v>
       </c>
-      <c r="Z97" s="2">
+      <c r="Z97" s="6">
         <v>0.60242914979757078</v>
       </c>
-      <c r="AA97" s="2">
+      <c r="AA97" s="6">
         <v>0.78400809716599185</v>
       </c>
-      <c r="AB97" s="2">
+      <c r="AB97" s="6">
         <v>0.78319838056680158</v>
       </c>
       <c r="AC97" s="2">
@@ -45504,25 +45525,25 @@
       <c r="V98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W98" s="2">
+      <c r="W98" s="6">
         <v>0.83724696356275297</v>
       </c>
-      <c r="X98" s="2">
+      <c r="X98" s="6">
         <v>0.76437246963562755</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Y98" s="6">
         <v>0.80890688259109311</v>
       </c>
-      <c r="Z98" s="2">
+      <c r="Z98" s="6">
         <v>0.68502024291497976</v>
       </c>
-      <c r="AA98" s="2">
+      <c r="AA98" s="6">
         <v>0.79757085020242924</v>
       </c>
-      <c r="AB98" s="2">
+      <c r="AB98" s="6">
         <v>0.69048582995951413</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AC98" s="6">
         <v>0.75546558704453448</v>
       </c>
       <c r="AD98" s="2">
@@ -45566,7 +45587,7 @@
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="6">
         <v>0.70364372469635628</v>
       </c>
       <c r="C99" s="2">
@@ -45620,28 +45641,28 @@
       <c r="V99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W99" s="2">
+      <c r="W99" s="6">
         <v>0.71963562753036436</v>
       </c>
-      <c r="X99" s="2">
+      <c r="X99" s="6">
         <v>0.75526315789473686</v>
       </c>
-      <c r="Y99" s="2">
+      <c r="Y99" s="6">
         <v>0.67307692307692313</v>
       </c>
-      <c r="Z99" s="2">
+      <c r="Z99" s="6">
         <v>0.49089068825910931</v>
       </c>
-      <c r="AA99" s="2">
+      <c r="AA99" s="6">
         <v>0.62935222672064772</v>
       </c>
-      <c r="AB99" s="2">
+      <c r="AB99" s="6">
         <v>0.63502024291497972</v>
       </c>
-      <c r="AC99" s="2">
+      <c r="AC99" s="6">
         <v>0.77813765182186234</v>
       </c>
-      <c r="AD99" s="2">
+      <c r="AD99" s="6">
         <v>0.74453441295546552</v>
       </c>
       <c r="AE99" s="2">
@@ -45682,10 +45703,10 @@
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="6">
         <v>0.49898785425101211</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="6">
         <v>0.39615384615384608</v>
       </c>
       <c r="D100" s="2">
@@ -45733,18 +45754,19 @@
       <c r="S100" s="2">
         <v>0.10776921723060071</v>
       </c>
+      <c r="Z100" s="6"/>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="6">
         <v>0.31153846153846149</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="6">
         <v>0.23036437246963559</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="6">
         <v>0.71376518218623475</v>
       </c>
       <c r="E101" s="2">
@@ -45800,16 +45822,16 @@
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="6">
         <v>0.20344129554655871</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="6">
         <v>0.32510121457489882</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="6">
         <v>0.16497975708502019</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="6">
         <v>0.1408906882591093</v>
       </c>
       <c r="F102" s="2">
@@ -45856,19 +45878,19 @@
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="6">
         <v>0.1491902834008097</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="6">
         <v>0.24696356275303649</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="6">
         <v>0.15931174089068831</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="6">
         <v>5.2834008097165992E-2</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="6">
         <v>0.78927125506072882</v>
       </c>
       <c r="G103" s="2">
@@ -45912,22 +45934,22 @@
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="6">
         <v>0.15910931174089071</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="6">
         <v>0.28380566801619428</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="6">
         <v>0.12995951417004051</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="6">
         <v>6.3360323886639675E-2</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="6">
         <v>0.52226720647773273</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="6">
         <v>0.59615384615384615</v>
       </c>
       <c r="H104" s="2">
@@ -46022,25 +46044,25 @@
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="6">
         <v>0.35627530364372467</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="6">
         <v>0.37348178137651822</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="6">
         <v>0.26153846153846161</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="6">
         <v>0.11396761133603241</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="6">
         <v>0.46558704453441302</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="6">
         <v>0.44676113360323888</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="6">
         <v>0.55850202429149798</v>
       </c>
       <c r="I105" s="2">
@@ -46138,7 +46160,7 @@
       <c r="V106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W106" s="2">
+      <c r="W106" s="6">
         <v>0.97995951417004046</v>
       </c>
       <c r="X106" s="2">
@@ -46198,18 +46220,18 @@
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="V107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W107" s="2">
+      <c r="W107" s="6">
         <v>0.91396761133603233</v>
       </c>
-      <c r="X107" s="2">
+      <c r="X107" s="6">
         <v>0.93906882591093122</v>
       </c>
       <c r="Y107" s="2">
@@ -46268,13 +46290,13 @@
       <c r="V108" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W108" s="2">
+      <c r="W108" s="6">
         <v>0.74676113360323892</v>
       </c>
-      <c r="X108" s="2">
+      <c r="X108" s="6">
         <v>0.76194331983805674</v>
       </c>
-      <c r="Y108" s="2">
+      <c r="Y108" s="6">
         <v>0.85951417004048591</v>
       </c>
       <c r="Z108" s="2">
@@ -46330,16 +46352,16 @@
       <c r="V109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W109" s="2">
+      <c r="W109" s="6">
         <v>0.77530364372469629</v>
       </c>
-      <c r="X109" s="2">
+      <c r="X109" s="6">
         <v>0.78097165991902839</v>
       </c>
-      <c r="Y109" s="2">
+      <c r="Y109" s="6">
         <v>0.85971659919028331</v>
       </c>
-      <c r="Z109" s="2">
+      <c r="Z109" s="6">
         <v>0.80161943319838058</v>
       </c>
       <c r="AA109" s="2">
@@ -46440,19 +46462,19 @@
       <c r="V110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W110" s="2">
+      <c r="W110" s="6">
         <v>0.78562753036437249</v>
       </c>
-      <c r="X110" s="2">
+      <c r="X110" s="6">
         <v>0.79129554655870438</v>
       </c>
-      <c r="Y110" s="2">
+      <c r="Y110" s="6">
         <v>0.87712550607287454</v>
       </c>
-      <c r="Z110" s="2">
+      <c r="Z110" s="6">
         <v>0.78097165991902839</v>
       </c>
-      <c r="AA110" s="2">
+      <c r="AA110" s="6">
         <v>0.92935222672064777</v>
       </c>
       <c r="AB110" s="2">
@@ -46556,22 +46578,22 @@
       <c r="V111" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W111" s="2">
+      <c r="W111" s="6">
         <v>0.84939271255060722</v>
       </c>
-      <c r="X111" s="2">
+      <c r="X111" s="6">
         <v>0.88178137651821864</v>
       </c>
-      <c r="Y111" s="2">
+      <c r="Y111" s="6">
         <v>0.81659919028340089</v>
       </c>
-      <c r="Z111" s="2">
+      <c r="Z111" s="6">
         <v>0.72206477732793517</v>
       </c>
-      <c r="AA111" s="2">
+      <c r="AA111" s="6">
         <v>0.75668016194331977</v>
       </c>
-      <c r="AB111" s="2">
+      <c r="AB111" s="6">
         <v>0.74331983805668023</v>
       </c>
       <c r="AC111" s="2">
@@ -46618,7 +46640,7 @@
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="6">
         <v>0.70688259109311735</v>
       </c>
       <c r="C112" s="2">
@@ -46672,25 +46694,25 @@
       <c r="V112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W112" s="2">
+      <c r="W112" s="6">
         <v>0.86740890688259109</v>
       </c>
-      <c r="X112" s="2">
+      <c r="X112" s="6">
         <v>0.87955465587044535</v>
       </c>
-      <c r="Y112" s="2">
+      <c r="Y112" s="6">
         <v>0.81133603238866392</v>
       </c>
-      <c r="Z112" s="2">
+      <c r="Z112" s="6">
         <v>0.74979757085020238</v>
       </c>
-      <c r="AA112" s="2">
+      <c r="AA112" s="6">
         <v>0.81983805668016196</v>
       </c>
-      <c r="AB112" s="2">
+      <c r="AB112" s="6">
         <v>0.78360323886639671</v>
       </c>
-      <c r="AC112" s="2">
+      <c r="AC112" s="6">
         <v>0.92267206477732788</v>
       </c>
       <c r="AD112" s="2">
@@ -46734,10 +46756,10 @@
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="6">
         <v>0.48825910931174088</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="6">
         <v>0.36275303643724688</v>
       </c>
       <c r="D113" s="2">
@@ -46788,28 +46810,28 @@
       <c r="V113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W113" s="2">
+      <c r="W113" s="6">
         <v>0.84311740890688258</v>
       </c>
-      <c r="X113" s="2">
+      <c r="X113" s="6">
         <v>0.88340080971659918</v>
       </c>
-      <c r="Y113" s="2">
+      <c r="Y113" s="6">
         <v>0.84251012145748994</v>
       </c>
-      <c r="Z113" s="2">
+      <c r="Z113" s="6">
         <v>0.76538461538461533</v>
       </c>
-      <c r="AA113" s="2">
+      <c r="AA113" s="6">
         <v>0.80850202429149798</v>
       </c>
-      <c r="AB113" s="2">
+      <c r="AB113" s="6">
         <v>0.77692307692307694</v>
       </c>
-      <c r="AC113" s="2">
+      <c r="AC113" s="6">
         <v>0.93846153846153846</v>
       </c>
-      <c r="AD113" s="2">
+      <c r="AD113" s="6">
         <v>0.95566801619433206</v>
       </c>
       <c r="AE113" s="2">
@@ -46850,13 +46872,13 @@
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="6">
         <v>0.38340080971659918</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="6">
         <v>0.26740890688259111</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="6">
         <v>0.73178137651821862</v>
       </c>
       <c r="E114" s="2">
@@ -46901,21 +46923,23 @@
       <c r="S114" s="2">
         <v>0.30481472990444181</v>
       </c>
+      <c r="AA114" s="6"/>
+      <c r="AC114" s="6"/>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="6">
         <v>0.1097165991902834</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="6">
         <v>0.22712550607287449</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="6">
         <v>0.19534412955465591</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="6">
         <v>0.1497975708502024</v>
       </c>
       <c r="F115" s="2">
@@ -46962,19 +46986,19 @@
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="6">
         <v>0.15890688259109309</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="6">
         <v>0.1759109311740891</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="6">
         <v>0.25182186234817822</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="6">
         <v>0.12388663967611339</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="6">
         <v>0.80060728744939269</v>
       </c>
       <c r="G116" s="2">
@@ -47018,22 +47042,22 @@
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="6">
         <v>0.1524291497975708</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="6">
         <v>0.2119433198380567</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="6">
         <v>0.12894736842105259</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="6">
         <v>7.1052631578947367E-2</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="6">
         <v>0.58198380566801622</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="6">
         <v>0.66639676113360324</v>
       </c>
       <c r="H117" s="2">
@@ -47074,25 +47098,25 @@
       <c r="A118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="6">
         <v>0.33461538461538459</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="6">
         <v>0.23623481781376521</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="6">
         <v>0.31761133603238872</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="6">
         <v>0.16862348178137651</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="6">
         <v>0.53623481781376525</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="6">
         <v>0.52165991902834008</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="6">
         <v>0.607085020242915</v>
       </c>
       <c r="I118" s="2">
